--- a/biology/Biologie cellulaire et moléculaire/Coloration_à_l'hématoxyline_et_à_l'éosine/Coloration_à_l'hématoxyline_et_à_l'éosine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Coloration_à_l'hématoxyline_et_à_l'éosine/Coloration_à_l'hématoxyline_et_à_l'éosine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coloration_%C3%A0_l%27h%C3%A9matoxyline_et_%C3%A0_l%27%C3%A9osine</t>
+          <t>Coloration_à_l'hématoxyline_et_à_l'éosine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La coloration à l'hématoxyline et à l'éosine (le plus souvent désignée sous sa forme abrégée coloration HE) est une technique de coloration d'usage courant en histologie et en histopathologie.
-C'est une coloration bichromatique qui se compose d'un colorant nucléaire, l'hématoxyline, et d'un colorant cytoplasmique, l'éosine. L'hématoxyline est un colorant cationique (ou basique), qui a une affinité pour les éléments cellulaires chargés négativement (= anioniques ou acides) dits basophiles. Il colore notamment les noyaux en bleu/violet, en se fixant sur les acides nucléiques. A contrario, l'éosine est un colorant anionique (ou acide), qui a une affinité pour les éléments cellulaires chargés positivement (= cationiques ou basiques) dits éosinophiles. Il colore le cytoplasme en rose et les autres éléments cellulaires basiques en rose/rouge plus ou moins vifs selon leur acidophilie[1].
+C'est une coloration bichromatique qui se compose d'un colorant nucléaire, l'hématoxyline, et d'un colorant cytoplasmique, l'éosine. L'hématoxyline est un colorant cationique (ou basique), qui a une affinité pour les éléments cellulaires chargés négativement (= anioniques ou acides) dits basophiles. Il colore notamment les noyaux en bleu/violet, en se fixant sur les acides nucléiques. A contrario, l'éosine est un colorant anionique (ou acide), qui a une affinité pour les éléments cellulaires chargés positivement (= cationiques ou basiques) dits éosinophiles. Il colore le cytoplasme en rose et les autres éléments cellulaires basiques en rose/rouge plus ou moins vifs selon leur acidophilie.
 En microscopie optique, on peut observer :
 les noyaux en bleu/violet ;
 les basophiles en pourpre ;
